--- a/medicine/Sexualité et sexologie/Sexcrimes/Sexcrimes.xlsx
+++ b/medicine/Sexualité et sexologie/Sexcrimes/Sexcrimes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sexcrimes (Wild Things), ou Les Racoleuses au Québec, est un film américain réalisé par John McNaughton, sorti en 1998.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accroche
-À Blue Bay, en Floride, le conseiller pédagogique d'un lycée est accusé de viol par une élève. Au cours de l'enquête, une autre élève avoue avoir aussi été violée. Mais lors du procès survient un retournement de situation. La réalité n'est pas toujours celle qu'on pense.
-Synopsis détaillé
-Le conseiller d'orientation d'un lycée de la région de Miami, Sam Lombardo, est accusé de viol par deux étudiantes, la riche et populaire Kelly Van Ryan et la pauvre exclue Suzie Toller. Il engage l'avocat Kenneth Bowden pour se défendre.
+          <t>Accroche</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Blue Bay, en Floride, le conseiller pédagogique d'un lycée est accusé de viol par une élève. Au cours de l'enquête, une autre élève avoue avoir aussi été violée. Mais lors du procès survient un retournement de situation. La réalité n'est pas toujours celle qu'on pense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sexcrimes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conseiller d'orientation d'un lycée de la région de Miami, Sam Lombardo, est accusé de viol par deux étudiantes, la riche et populaire Kelly Van Ryan et la pauvre exclue Suzie Toller. Il engage l'avocat Kenneth Bowden pour se défendre.
 Au procès, les deux filles admettent avoir menti pour se venger de Sam : Suzie pour son incapacité à la sortir de prison pour une accusation de consommation de drogue mineure et Kelly pour sa liaison avec sa mère. Sam et Kenneth négocient un règlement de 8,5 millions de dollars pour diffamation. Il est révélé par la suite que Sam et les deux filles sont des complices en utilisant le procès pour obtenir de l'argent de la riche famille de Kelly.
 Le détective de police Ray Duquette soupçonne le trio. Contre la volonté du bureau du procureur de district, il continue d'enquêter sur Sam. Il dit à Suzie que Sam a déjà transféré l'argent sur un compte offshore. Suzie panique mais Kelly la réconforte. Celle-ci appelle Sam et lui dit qu'ils devront peut-être se débarrasser de Suzie. Dans la piscine, Suzie attaque Kelly. Elles se battent, mais finissent par s'embrasser, sous la surveillance de Ray, à leur insu. Quelques nuits plus tard, à la plage, Sam tue Suzie pendant que Kelly attend à proximité. Ils se rendent au marais où Sam se débarrasse du corps emballé dans du plastique.
 Ray et sa partenaire, l'inspecteur Gloria Perez, enquêtent sur la disparition de Suzie. Son sang et une de ses dents sont retrouvés sur la plage tandis que sa voiture est retrouvée à une gare routière. Le bureau du procureur insiste à nouveau pour que Ray abandonne l'affaire, mais il demande à Gloria de surveiller Sam. Sam montre les dossiers scolaires de Kelly, qui prétendent qu'elle est une fille troublée et violente. Pendant ce temps, Ray affronte une Kelly effrayée et contrariée. Après que Ray soit entré dans sa chambre, trois coups de feu sont entendus, après quoi Ray sort de la pièce et s'effondre. Il affirme plus tard que Kelly a tiré en premier et qu'il l'a tuée en état de légitime défense. Aucune accusation n'est portée contre lui, mais il est renvoyé de la police pour avoir désobéi aux ordres.
@@ -527,31 +579,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sexcrimes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sexcrimes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Sexcrimes
 Titre québécois : Les Racoleuses
@@ -582,33 +636,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sexcrimes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sexcrimes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denise Richards (VF : Barbara Delsol ; VQ : Sophie Léger) : Kelly Lanier Van Ryan
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Denise Richards (VF : Barbara Delsol ; VQ : Sophie Léger) : Kelly Lanier Van Ryan
 Matt Dillon (VF : Maurice Decoster ; VQ : Gilbert Lachance) : Sam Lombardo
 Kevin Bacon (VF : Philippe Vincent ; VQ : Benoît Rousseau) : Sergent Ray Duquette
 Neve Campbell (VF : Aurélia Bruno ; VQ : Charlotte Bernard) : Suzie Marie Toller
@@ -626,42 +682,7 @@
 Dennis Neal (VF : Pierre Dourlens) : Art Maddox
 Eduardo Yáñez (VQ : Pierre Auger) : Frankie Condo
 Antoni Corone : Chef de Police
-Sources et légende : version française (VF) sur Voxofilm[1]. Version québécoise (VQ) sur Doublage Québec[2]
-Second doublage français en 2007
-Le film ressort en 2007 en version longue au format Blu-ray, de nouvelles scènes (inédites) sont insérées dans l'histoire. L'éditeur fait donc le choix de redoubler le film tout en respectant scrupuleusement les dialogues de 1998.
-Si plusieurs comédiens de l'ancienne version participent à ce nouveau doublage (comme Maurice Decoster, Philippe Vincent, Richard Darbois ou encore Aurélia Bruno), on note plusieurs remplacements, notamment celui de Nanou Garcia.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sexcrimes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Autour du film</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le tournage s'est déroulé à Coral Gables, Fort Lauderdale, Key Biscayne, Los Angeles, Miami, North Miami et Virginia Key.
-Le film a connu trois suites : Sexcrimes 2, Sexcrimes 3 et Sexcrimes : Partie à 4.</t>
+Sources et légende : version française (VF) sur Voxofilm. Version québécoise (VQ) sur Doublage Québec</t>
         </is>
       </c>
     </row>
@@ -686,10 +707,83 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Second doublage français en 2007</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film ressort en 2007 en version longue au format Blu-ray, de nouvelles scènes (inédites) sont insérées dans l'histoire. L'éditeur fait donc le choix de redoubler le film tout en respectant scrupuleusement les dialogues de 1998.
+Si plusieurs comédiens de l'ancienne version participent à ce nouveau doublage (comme Maurice Decoster, Philippe Vincent, Richard Darbois ou encore Aurélia Bruno), on note plusieurs remplacements, notamment celui de Nanou Garcia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sexcrimes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autour du film</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le tournage s'est déroulé à Coral Gables, Fort Lauderdale, Key Biscayne, Los Angeles, Miami, North Miami et Virginia Key.
+Le film a connu trois suites : Sexcrimes 2, Sexcrimes 3 et Sexcrimes : Partie à 4.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sexcrimes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Salsa Caliente, interprété par Tito Puente
@@ -714,38 +808,109 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Sexcrimes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sexcrimes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Entre 1998 et 1999, Sexcrimes a été sélectionné dans diverses catégories et a remporté deux récompenses[3].
-Récompenses
-Los Angeles Film Critics Association Awards 1998 : meilleur acteur dans un second rôle pour Bill Murray
-Blockbuster Entertainment Awards 1999 : meilleure actrice dans un second rôle dans un film de suspense pour Daphne Rubin-Vega
-Nominations
-Saturn Awards 1999 : meilleure musique pour George S. Clinton
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1998 et 1999, Sexcrimes a été sélectionné dans diverses catégories et a remporté deux récompenses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sexcrimes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Los Angeles Film Critics Association Awards 1998 : meilleur acteur dans un second rôle pour Bill Murray
+Blockbuster Entertainment Awards 1999 : meilleure actrice dans un second rôle dans un film de suspense pour Daphne Rubin-Vega</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sexcrimes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sexcrimes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Saturn Awards 1999 : meilleure musique pour George S. Clinton
 ALMA Awards 1999 : meilleure actrice dans un long métrage pour Daphne Rubin-Vega
 MTV Movie &amp; TV Awards 1999 : meilleur baiser pour Matt Dillon, Denise Richards et Neve Campbell</t>
         </is>
